--- a/SearchOption1/Emails-List.xlsx
+++ b/SearchOption1/Emails-List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationSearchJoB\SearchOption1\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Company Name</t>
   </si>
@@ -79,12 +79,19 @@
   </si>
   <si>
     <t>Test Company13</t>
+  </si>
+  <si>
+    <t>No Responce</t>
+  </si>
+  <si>
+    <t>2023-31-21 11:31:43</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,10 +483,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="19.88671875"/>
+    <col min="3" max="3" customWidth="true" width="28.44140625"/>
+    <col min="4" max="4" customWidth="true" width="18.6640625"/>
+    <col min="5" max="5" customWidth="true" width="16.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -507,8 +514,12 @@
         <v>5</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -518,8 +529,12 @@
         <v>6</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -529,8 +544,12 @@
         <v>7</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">

--- a/SearchOption1/Emails-List.xlsx
+++ b/SearchOption1/Emails-List.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Company Name</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>2023-31-21 11:31:43</t>
+  </si>
+  <si>
+    <t>2023-01-27 02:01:03</t>
+  </si>
+  <si>
+    <t>2023-13-29 02:13:51</t>
   </si>
 </sst>
 </file>
@@ -559,8 +565,12 @@
         <v>8</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -570,8 +580,12 @@
         <v>9</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -581,8 +595,12 @@
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -592,8 +610,12 @@
         <v>11</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -603,8 +625,12 @@
         <v>12</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -614,8 +640,12 @@
         <v>13</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">

--- a/SearchOption1/Emails-List.xlsx
+++ b/SearchOption1/Emails-List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationSearchJoB\SearchOption1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B074E3-0E3C-4E3F-8B58-88D7E0218836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A1BCB9-D774-4C43-B0F7-4B071A65550E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Company Name</t>
   </si>
@@ -81,23 +81,13 @@
     <t>Test Company13</t>
   </si>
   <si>
-    <t>No Responce</t>
-  </si>
-  <si>
-    <t>2023-31-21 11:31:43</t>
-  </si>
-  <si>
-    <t>2023-01-27 02:01:03</t>
-  </si>
-  <si>
-    <t>2023-13-29 02:13:51</t>
+    <t>ahmed_92a@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,15 +474,15 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="19.88671875"/>
-    <col min="3" max="3" customWidth="true" width="28.44140625"/>
-    <col min="4" max="4" customWidth="true" width="18.6640625"/>
-    <col min="5" max="5" customWidth="true" width="16.5546875"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -519,13 +509,11 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -534,13 +522,11 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -549,13 +535,11 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -564,13 +548,11 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -579,13 +561,11 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -594,13 +574,11 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -609,13 +587,11 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -624,13 +600,11 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -639,13 +613,11 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -654,7 +626,9 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
@@ -665,7 +639,9 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
@@ -676,7 +652,9 @@
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
@@ -687,13 +665,19 @@
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A4B7C862-7C35-44BC-9C79-D2FDDAFE7CA4}"/>
+    <hyperlink ref="C3:C14" r:id="rId2" display="ahmed_92a@hotmail.com" xr:uid="{58DD305E-9404-4206-AA81-F118171A4C6B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>